--- a/ArqComp/Dados.xlsx
+++ b/ArqComp/Dados.xlsx
@@ -5,17 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bianc\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bianc\Downloads\Repositórios\IGNIS\ArqComp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15C6649A-36A9-4588-B4C8-56A96673F9D3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3572197-F0B8-4659-8E94-35A99BE01FFE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{3FCBBB7F-1FC4-4430-B72E-3E374A0E91DE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3FCBBB7F-1FC4-4430-B72E-3E374A0E91DE}"/>
   </bookViews>
   <sheets>
     <sheet name="Dados" sheetId="1" r:id="rId1"/>
     <sheet name="Planilha1" sheetId="2" r:id="rId2"/>
-    <sheet name="Planilha2" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="59">
   <si>
     <t>-</t>
   </si>
@@ -214,9 +213,6 @@
   <si>
     <t>Crítico</t>
   </si>
-  <si>
-    <t>Dados</t>
-  </si>
 </sst>
 </file>
 
@@ -352,7 +348,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -423,11 +419,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -440,7 +445,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -506,8 +510,51 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -522,43 +569,16 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -567,11 +587,12 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFA3FFD3"/>
+      <color rgb="FFF5D76B"/>
+      <color rgb="FFF9E7A5"/>
       <color rgb="FFFF3445"/>
+      <color rgb="FFFF939D"/>
       <color rgb="FFEE0017"/>
-      <color rgb="FFA3FFD3"/>
-      <color rgb="FFF9E7A5"/>
-      <color rgb="FFFF939D"/>
       <color rgb="FFFF6574"/>
       <color rgb="FF00DF76"/>
       <color rgb="FF5FEF96"/>
@@ -1981,893 +2002,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="pt-BR"/>
-              <a:t>Temperatura</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Planilha2!$B$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Crítico</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="EE0017"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Planilha2!$A$3:$A$14</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>Janeiro</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Fevereiro</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Março</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Abril</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Maio</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Junho</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Julho</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Agosto</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Setembro</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Outubro</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Novembro</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Dezembro</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Planilha2!$B$3:$B$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>47</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0870-4D42-972E-FB613E665C09}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Planilha2!$C$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Perigo</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="FF3445"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Planilha2!$A$3:$A$14</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>Janeiro</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Fevereiro</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Março</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Abril</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Maio</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Junho</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Julho</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Agosto</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Setembro</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Outubro</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Novembro</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Dezembro</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Planilha2!$C$3:$C$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>36</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-0870-4D42-972E-FB613E665C09}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Planilha2!$D$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Atenção</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="F9E7A5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Planilha2!$A$3:$A$14</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>Janeiro</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Fevereiro</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Março</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Abril</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Maio</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Junho</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Julho</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Agosto</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Setembro</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Outubro</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Novembro</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Dezembro</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Planilha2!$D$3:$D$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>32</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-0870-4D42-972E-FB613E665C09}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Planilha2!$E$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Estável</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="A3FFD3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Planilha2!$A$3:$A$14</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>Janeiro</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Fevereiro</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Março</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Abril</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Maio</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Junho</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Julho</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Agosto</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Setembro</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Outubro</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Novembro</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Dezembro</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Planilha2!$E$3:$E$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>28</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-0870-4D42-972E-FB613E665C09}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Planilha2!$F$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Dados</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Planilha2!$A$3:$A$14</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>Janeiro</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Fevereiro</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Março</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Abril</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Maio</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Junho</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Julho</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Agosto</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Setembro</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Outubro</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Novembro</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Dezembro</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Planilha2!$F$3:$F$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>33</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-0870-4D42-972E-FB613E665C09}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="1503653855"/>
-        <c:axId val="1503650943"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="1503653855"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1503650943"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1503650943"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1503653855"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="pt-BR"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2988,46 +2122,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -4048,522 +3142,6 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5184,47 +3762,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>599661</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>139314</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>294861</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>139313</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Gráfico 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9352E4E6-4207-421C-90CD-95EA1C8AA1C3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5530,10 +4067,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4202C79-17A0-4D08-A74A-63921CCEDC02}">
-  <dimension ref="A1:O28"/>
+  <dimension ref="A1:S28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -5541,24 +4078,24 @@
     <col min="1" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>14</v>
       </c>
@@ -5602,7 +4139,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>1999</v>
       </c>
@@ -5646,7 +4183,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>2000</v>
       </c>
@@ -5690,7 +4227,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>2001</v>
       </c>
@@ -5734,7 +4271,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>2002</v>
       </c>
@@ -5774,8 +4311,13 @@
       <c r="M6" s="3">
         <v>78</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O6" s="61"/>
+      <c r="P6" s="61"/>
+      <c r="Q6" s="61"/>
+      <c r="R6" s="61"/>
+      <c r="S6" s="61"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>2003</v>
       </c>
@@ -5815,8 +4357,13 @@
       <c r="M7" s="3">
         <v>78</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O7" s="62"/>
+      <c r="P7" s="62"/>
+      <c r="Q7" s="62"/>
+      <c r="R7" s="62"/>
+      <c r="S7" s="62"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>2004</v>
       </c>
@@ -5856,8 +4403,13 @@
       <c r="M8" s="3">
         <v>167</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O8" s="62"/>
+      <c r="P8" s="62"/>
+      <c r="Q8" s="63"/>
+      <c r="R8" s="62"/>
+      <c r="S8" s="62"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>2005</v>
       </c>
@@ -5897,8 +4449,13 @@
       <c r="M9" s="3">
         <v>91</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O9" s="61"/>
+      <c r="P9" s="62"/>
+      <c r="Q9" s="62"/>
+      <c r="R9" s="62"/>
+      <c r="S9" s="61"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>2006</v>
       </c>
@@ -5939,7 +4496,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>2007</v>
       </c>
@@ -5980,7 +4537,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>2008</v>
       </c>
@@ -6021,7 +4578,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>2009</v>
       </c>
@@ -6062,7 +4619,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>2010</v>
       </c>
@@ -6103,7 +4660,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>2011</v>
       </c>
@@ -6144,7 +4701,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>2012</v>
       </c>
@@ -6473,48 +5030,268 @@
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="44">
+        <f t="shared" ref="B24:M24" si="0">MIN(B3:B23)</f>
+        <v>7</v>
+      </c>
+      <c r="C24" s="44">
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B24" s="6">
-        <f>AVERAGE(B3:B23)</f>
+      <c r="D24" s="44">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="E24" s="44">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="F24" s="44">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="G24" s="44">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="H24" s="44">
+        <f t="shared" si="0"/>
+        <v>139</v>
+      </c>
+      <c r="I24" s="44">
+        <f t="shared" si="0"/>
+        <v>347</v>
+      </c>
+      <c r="J24" s="44">
+        <f t="shared" si="0"/>
+        <v>148</v>
+      </c>
+      <c r="K24" s="44">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="L24" s="44">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="M24" s="44">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A25" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="45">
+        <f t="shared" ref="B25:M25" si="1">_xlfn.QUARTILE.EXC(B3:B23,1)</f>
+        <v>29.5</v>
+      </c>
+      <c r="C25" s="45">
+        <f t="shared" si="1"/>
+        <v>34.5</v>
+      </c>
+      <c r="D25" s="45">
+        <f t="shared" si="1"/>
+        <v>59.5</v>
+      </c>
+      <c r="E25" s="45">
+        <f t="shared" si="1"/>
+        <v>81.5</v>
+      </c>
+      <c r="F25" s="45">
+        <f t="shared" si="1"/>
+        <v>154</v>
+      </c>
+      <c r="G25" s="45">
+        <f t="shared" si="1"/>
+        <v>187</v>
+      </c>
+      <c r="H25" s="45">
+        <f t="shared" si="1"/>
+        <v>408</v>
+      </c>
+      <c r="I25" s="45">
+        <f t="shared" si="1"/>
+        <v>594.5</v>
+      </c>
+      <c r="J25" s="45">
+        <f t="shared" si="1"/>
+        <v>494.5</v>
+      </c>
+      <c r="K25" s="45">
+        <f t="shared" si="1"/>
+        <v>146</v>
+      </c>
+      <c r="L25" s="45">
+        <f t="shared" si="1"/>
+        <v>54.5</v>
+      </c>
+      <c r="M25" s="45">
+        <f t="shared" si="1"/>
+        <v>45.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A26" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" s="46">
+        <f t="shared" ref="B26:M26" si="2">AVERAGE(B3:B23)</f>
         <v>50.476190476190474</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
+      <c r="C26" s="43">
+        <f t="shared" si="2"/>
+        <v>84.61904761904762</v>
+      </c>
+      <c r="D26" s="43">
+        <f t="shared" si="2"/>
+        <v>101.38095238095238</v>
+      </c>
+      <c r="E26" s="43">
+        <f t="shared" si="2"/>
+        <v>148.23809523809524</v>
+      </c>
+      <c r="F26" s="43">
+        <f t="shared" si="2"/>
+        <v>256.28571428571428</v>
+      </c>
+      <c r="G26" s="43">
+        <f t="shared" si="2"/>
+        <v>371.14285714285717</v>
+      </c>
+      <c r="H26" s="43">
+        <f t="shared" si="2"/>
+        <v>579.23809523809518</v>
+      </c>
+      <c r="I26" s="43">
+        <f t="shared" si="2"/>
+        <v>911.09523809523807</v>
+      </c>
+      <c r="J26" s="43">
+        <f t="shared" si="2"/>
+        <v>808.42857142857144</v>
+      </c>
+      <c r="K26" s="43">
+        <f t="shared" si="2"/>
+        <v>338.47619047619048</v>
+      </c>
+      <c r="L26" s="43">
+        <f t="shared" si="2"/>
+        <v>125</v>
+      </c>
+      <c r="M26" s="43">
+        <f t="shared" si="2"/>
+        <v>73.25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A27" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" s="45">
+        <f t="shared" ref="B27:M27" si="3">_xlfn.QUARTILE.EXC(B3:B23,3)</f>
+        <v>67</v>
+      </c>
+      <c r="C27" s="45">
+        <f t="shared" si="3"/>
+        <v>108.5</v>
+      </c>
+      <c r="D27" s="45">
+        <f t="shared" si="3"/>
+        <v>128.5</v>
+      </c>
+      <c r="E27" s="45">
+        <f t="shared" si="3"/>
+        <v>200.5</v>
+      </c>
+      <c r="F27" s="45">
+        <f t="shared" si="3"/>
+        <v>352</v>
+      </c>
+      <c r="G27" s="45">
+        <f t="shared" si="3"/>
+        <v>583.5</v>
+      </c>
+      <c r="H27" s="45">
+        <f t="shared" si="3"/>
+        <v>752</v>
+      </c>
+      <c r="I27" s="45">
+        <f t="shared" si="3"/>
+        <v>1160</v>
+      </c>
+      <c r="J27" s="45">
+        <f t="shared" si="3"/>
+        <v>1007</v>
+      </c>
+      <c r="K27" s="45">
+        <f t="shared" si="3"/>
+        <v>538</v>
+      </c>
+      <c r="L27" s="45">
+        <f t="shared" si="3"/>
+        <v>170.25</v>
+      </c>
+      <c r="M27" s="45">
+        <f t="shared" si="3"/>
+        <v>92.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A28" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="1">
-        <f>MAX(B3:B23)</f>
+      <c r="B28" s="44">
+        <f t="shared" ref="B28:M28" si="4">MAX(B3:B23)</f>
         <v>108</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B26" s="1">
-        <f>MIN(B3:B23)</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B27" s="1">
-        <f>_xlfn.QUARTILE.EXC(B3:B23,1)</f>
-        <v>29.5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B28" s="1">
-        <f>_xlfn.QUARTILE.EXC(B3:B23,3)</f>
-        <v>67</v>
+      <c r="C28" s="44">
+        <f t="shared" si="4"/>
+        <v>185</v>
+      </c>
+      <c r="D28" s="44">
+        <f t="shared" si="4"/>
+        <v>267</v>
+      </c>
+      <c r="E28" s="44">
+        <f t="shared" si="4"/>
+        <v>293</v>
+      </c>
+      <c r="F28" s="44">
+        <f t="shared" si="4"/>
+        <v>587</v>
+      </c>
+      <c r="G28" s="44">
+        <f t="shared" si="4"/>
+        <v>757</v>
+      </c>
+      <c r="H28" s="44">
+        <f t="shared" si="4"/>
+        <v>1070</v>
+      </c>
+      <c r="I28" s="44">
+        <f t="shared" si="4"/>
+        <v>2444</v>
+      </c>
+      <c r="J28" s="44">
+        <f t="shared" si="4"/>
+        <v>1930</v>
+      </c>
+      <c r="K28" s="44">
+        <f t="shared" si="4"/>
+        <v>852</v>
+      </c>
+      <c r="L28" s="44">
+        <f t="shared" si="4"/>
+        <v>400</v>
+      </c>
+      <c r="M28" s="44">
+        <f t="shared" si="4"/>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -6532,110 +5309,110 @@
   <dimension ref="A1:P37"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:D3"/>
+      <selection activeCell="A6" sqref="A6:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="9"/>
-    <col min="7" max="7" width="8.88671875" style="9"/>
-    <col min="11" max="11" width="8.88671875" style="9"/>
+    <col min="1" max="1" width="8.88671875" style="8"/>
+    <col min="7" max="7" width="8.88671875" style="8"/>
+    <col min="11" max="11" width="8.88671875" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="41"/>
-      <c r="H1" s="42" t="s">
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="H1" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="35" t="s">
+      <c r="B2" s="54"/>
+      <c r="C2" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="35"/>
-      <c r="E2" s="30" t="s">
+      <c r="D2" s="51"/>
+      <c r="E2" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="53" t="s">
+      <c r="F2" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="G2" s="21"/>
-      <c r="H2" s="8" t="s">
+      <c r="G2" s="20"/>
+      <c r="H2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="42" t="s">
+      <c r="I2" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="43"/>
-      <c r="L2" s="42" t="s">
+      <c r="J2" s="52"/>
+      <c r="L2" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="M2" s="42"/>
+      <c r="M2" s="48"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="54" t="s">
+      <c r="F3" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="G3" s="22"/>
-      <c r="I3" s="8" t="s">
+      <c r="G3" s="21"/>
+      <c r="I3" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="K3" s="8"/>
-      <c r="L3" s="28" t="s">
+      <c r="K3" s="7"/>
+      <c r="L3" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="M3" s="28" t="s">
+      <c r="M3" s="27" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="12" t="s">
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="22"/>
-      <c r="H4" s="8" t="s">
+      <c r="G4" s="21"/>
+      <c r="H4" s="7" t="s">
         <v>37</v>
       </c>
       <c r="I4">
@@ -6644,25 +5421,25 @@
       <c r="J4">
         <v>33</v>
       </c>
-      <c r="K4" s="32"/>
-      <c r="L4" s="28">
+      <c r="K4" s="31"/>
+      <c r="L4" s="27">
         <v>1</v>
       </c>
-      <c r="M4" s="28">
+      <c r="M4" s="27">
         <v>1</v>
       </c>
-      <c r="O4" s="32"/>
-      <c r="P4" s="33"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="32"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="13"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="8" t="s">
+      <c r="A5" s="12"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="7" t="s">
         <v>38</v>
       </c>
       <c r="I5">
@@ -6671,26 +5448,26 @@
       <c r="J5">
         <v>25</v>
       </c>
-      <c r="K5" s="32"/>
-      <c r="L5" s="28">
+      <c r="K5" s="31"/>
+      <c r="L5" s="27">
         <v>0</v>
       </c>
-      <c r="M5" s="28">
+      <c r="M5" s="27">
         <v>0</v>
       </c>
-      <c r="O5" s="32"/>
-      <c r="P5" s="33"/>
+      <c r="O5" s="31"/>
+      <c r="P5" s="32"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="23"/>
-      <c r="H6" s="8" t="s">
+      <c r="B6" s="56"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="22"/>
+      <c r="H6" s="7" t="s">
         <v>39</v>
       </c>
       <c r="I6">
@@ -6699,30 +5476,30 @@
       <c r="J6">
         <v>33</v>
       </c>
-      <c r="K6" s="32"/>
-      <c r="L6" s="28">
+      <c r="K6" s="31"/>
+      <c r="L6" s="27">
         <v>1</v>
       </c>
-      <c r="M6" s="28">
+      <c r="M6" s="27">
         <v>1</v>
       </c>
-      <c r="O6" s="32"/>
-      <c r="P6" s="22"/>
+      <c r="O6" s="31"/>
+      <c r="P6" s="21"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="36"/>
-      <c r="D7" s="39" t="s">
+      <c r="C7" s="56"/>
+      <c r="D7" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="38"/>
-      <c r="F7" s="23"/>
-      <c r="H7" s="8" t="s">
+      <c r="E7" s="58"/>
+      <c r="F7" s="22"/>
+      <c r="H7" s="7" t="s">
         <v>40</v>
       </c>
       <c r="I7">
@@ -6731,34 +5508,34 @@
       <c r="J7">
         <v>21</v>
       </c>
-      <c r="K7" s="32"/>
-      <c r="L7" s="28">
+      <c r="K7" s="31"/>
+      <c r="L7" s="27">
         <v>0</v>
       </c>
-      <c r="M7" s="28">
+      <c r="M7" s="27">
         <v>0</v>
       </c>
-      <c r="O7" s="32"/>
-      <c r="P7" s="22"/>
+      <c r="O7" s="31"/>
+      <c r="P7" s="21"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A8" s="14">
+      <c r="A8" s="13">
         <v>0.2</v>
       </c>
-      <c r="B8" s="15">
+      <c r="B8" s="14">
         <v>0.21</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="14">
         <v>0.3</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D8" s="15">
         <v>0.36</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="15">
         <v>0.8</v>
       </c>
-      <c r="F8" s="23"/>
-      <c r="H8" s="8" t="s">
+      <c r="F8" s="22"/>
+      <c r="H8" s="7" t="s">
         <v>41</v>
       </c>
       <c r="I8">
@@ -6767,28 +5544,28 @@
       <c r="J8">
         <v>26</v>
       </c>
-      <c r="K8" s="32"/>
-      <c r="L8" s="28">
+      <c r="K8" s="31"/>
+      <c r="L8" s="27">
         <v>0</v>
       </c>
-      <c r="M8" s="28">
+      <c r="M8" s="27">
         <v>0</v>
       </c>
-      <c r="O8" s="32"/>
-      <c r="P8" s="22"/>
+      <c r="O8" s="31"/>
+      <c r="P8" s="21"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17" t="s">
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="23"/>
-      <c r="H9" s="8" t="s">
+      <c r="F9" s="22"/>
+      <c r="H9" s="7" t="s">
         <v>42</v>
       </c>
       <c r="I9">
@@ -6797,18 +5574,18 @@
       <c r="J9">
         <v>27</v>
       </c>
-      <c r="K9" s="32"/>
-      <c r="L9" s="28">
+      <c r="K9" s="31"/>
+      <c r="L9" s="27">
         <v>0</v>
       </c>
-      <c r="M9" s="28">
+      <c r="M9" s="27">
         <v>0</v>
       </c>
-      <c r="O9" s="32"/>
-      <c r="P9" s="22"/>
+      <c r="O9" s="31"/>
+      <c r="P9" s="21"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="H10" s="8" t="s">
+      <c r="H10" s="7" t="s">
         <v>43</v>
       </c>
       <c r="I10">
@@ -6817,23 +5594,23 @@
       <c r="J10">
         <v>26</v>
       </c>
-      <c r="L10" s="28">
+      <c r="L10" s="27">
         <v>1</v>
       </c>
-      <c r="M10" s="28">
+      <c r="M10" s="27">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:16" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="52" t="s">
+    <row r="11" spans="1:16" s="28" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="B11" s="52"/>
-      <c r="C11" s="52"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="49"/>
-      <c r="H11" s="8" t="s">
+      <c r="B11" s="49"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="22"/>
+      <c r="H11" s="7" t="s">
         <v>44</v>
       </c>
       <c r="I11">
@@ -6842,20 +5619,20 @@
       <c r="J11">
         <v>28</v>
       </c>
-      <c r="L11" s="28">
+      <c r="L11" s="27">
         <v>1</v>
       </c>
-      <c r="M11" s="28">
+      <c r="M11" s="27">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A12" s="31"/>
-      <c r="B12" s="31"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="H12" s="8" t="s">
+      <c r="A12" s="30"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="H12" s="7" t="s">
         <v>45</v>
       </c>
       <c r="I12">
@@ -6864,24 +5641,24 @@
       <c r="J12">
         <v>30</v>
       </c>
-      <c r="L12" s="28">
+      <c r="L12" s="27">
         <v>1</v>
       </c>
-      <c r="M12" s="28">
+      <c r="M12" s="27">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A13" s="28" t="s">
+      <c r="A13" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="B13" s="46" t="s">
+      <c r="B13" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="48"/>
-      <c r="H13" s="8" t="s">
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="35"/>
+      <c r="H13" s="7" t="s">
         <v>46</v>
       </c>
       <c r="I13">
@@ -6890,28 +5667,28 @@
       <c r="J13">
         <v>31</v>
       </c>
-      <c r="L13" s="28">
+      <c r="L13" s="27">
         <v>1</v>
       </c>
-      <c r="M13" s="28">
+      <c r="M13" s="27">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A14" s="28">
+      <c r="A14" s="27">
         <v>1</v>
       </c>
-      <c r="B14" s="28">
+      <c r="B14" s="27">
         <v>26</v>
       </c>
-      <c r="D14" s="26" t="s">
+      <c r="D14" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="47">
+      <c r="E14" s="34">
         <v>0</v>
       </c>
-      <c r="G14" s="21"/>
-      <c r="H14" s="8" t="s">
+      <c r="G14" s="20"/>
+      <c r="H14" s="7" t="s">
         <v>47</v>
       </c>
       <c r="I14">
@@ -6920,28 +5697,28 @@
       <c r="J14">
         <v>29</v>
       </c>
-      <c r="L14" s="28">
+      <c r="L14" s="27">
         <v>1</v>
       </c>
-      <c r="M14" s="28">
+      <c r="M14" s="27">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A15" s="28">
+      <c r="A15" s="27">
         <v>2</v>
       </c>
-      <c r="B15" s="28">
+      <c r="B15" s="27">
         <v>28</v>
       </c>
-      <c r="D15" s="26" t="s">
+      <c r="D15" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="E15" s="47">
+      <c r="E15" s="34">
         <f>_xlfn.QUARTILE.EXC(B14:B24,1)</f>
         <v>28</v>
       </c>
-      <c r="H15" s="8" t="s">
+      <c r="H15" s="7" t="s">
         <v>48</v>
       </c>
       <c r="I15">
@@ -6950,67 +5727,67 @@
       <c r="J15">
         <v>37</v>
       </c>
-      <c r="L15" s="28">
+      <c r="L15" s="27">
         <v>1</v>
       </c>
-      <c r="M15" s="28">
+      <c r="M15" s="27">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A16" s="28">
+      <c r="A16" s="27">
         <v>3</v>
       </c>
-      <c r="B16" s="28">
+      <c r="B16" s="27">
         <v>28</v>
       </c>
-      <c r="D16" s="27" t="s">
+      <c r="D16" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="E16" s="49">
+      <c r="E16" s="36">
         <f>AVERAGE(B14:B24)</f>
         <v>31.818181818181817</v>
       </c>
       <c r="F16" t="s">
         <v>56</v>
       </c>
-      <c r="L16" s="51">
+      <c r="L16" s="38">
         <v>8</v>
       </c>
-      <c r="M16" s="51">
+      <c r="M16" s="38">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="28">
+    <row r="17" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="27">
         <v>4</v>
       </c>
-      <c r="B17" s="28">
+      <c r="B17" s="27">
         <v>29</v>
       </c>
-      <c r="D17" s="27" t="s">
+      <c r="D17" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="E17" s="49">
+      <c r="E17" s="36">
         <f>MEDIAN(B14:B24)</f>
         <v>30</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="F17" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="H17" s="8"/>
+      <c r="H17" s="7"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="28">
+      <c r="A18" s="27">
         <v>5</v>
       </c>
-      <c r="B18" s="28">
+      <c r="B18" s="27">
         <v>36</v>
       </c>
-      <c r="D18" s="24" t="s">
+      <c r="D18" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="E18" s="50">
+      <c r="E18" s="37">
         <f>_xlfn.QUARTILE.EXC(B14:B24,3)</f>
         <v>36</v>
       </c>
@@ -7019,61 +5796,61 @@
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="28">
+      <c r="A19" s="27">
         <v>6</v>
       </c>
-      <c r="B19" s="28">
+      <c r="B19" s="27">
         <v>47</v>
       </c>
-      <c r="D19" s="55" t="s">
+      <c r="D19" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="E19" s="56">
+      <c r="E19" s="42">
         <v>47</v>
       </c>
       <c r="F19" t="s">
         <v>52</v>
       </c>
-      <c r="H19" s="8" t="s">
+      <c r="H19" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="I19" s="42" t="s">
+      <c r="I19" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="J19" s="42"/>
-      <c r="L19" s="42" t="s">
+      <c r="J19" s="48"/>
+      <c r="L19" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="M19" s="42"/>
+      <c r="M19" s="48"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="28">
+      <c r="A20" s="27">
         <v>7</v>
       </c>
-      <c r="B20" s="28">
+      <c r="B20" s="27">
         <v>35</v>
       </c>
-      <c r="I20" s="8" t="s">
+      <c r="I20" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="J20" s="8" t="s">
+      <c r="J20" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="L20" s="28" t="s">
+      <c r="L20" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="M20" s="28" t="s">
+      <c r="M20" s="27" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="28">
+      <c r="A21" s="27">
         <v>8</v>
       </c>
-      <c r="B21" s="28">
+      <c r="B21" s="27">
         <v>23</v>
       </c>
-      <c r="H21" s="8" t="s">
+      <c r="H21" s="7" t="s">
         <v>37</v>
       </c>
       <c r="I21">
@@ -7082,21 +5859,21 @@
       <c r="J21">
         <v>78</v>
       </c>
-      <c r="L21" s="28">
+      <c r="L21" s="27">
         <v>0</v>
       </c>
-      <c r="M21" s="28">
+      <c r="M21" s="27">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="28">
+      <c r="A22" s="27">
         <v>9</v>
       </c>
-      <c r="B22" s="28">
+      <c r="B22" s="27">
         <v>32</v>
       </c>
-      <c r="H22" s="8" t="s">
+      <c r="H22" s="7" t="s">
         <v>38</v>
       </c>
       <c r="I22">
@@ -7105,21 +5882,21 @@
       <c r="J22">
         <v>77</v>
       </c>
-      <c r="L22" s="28">
+      <c r="L22" s="27">
         <v>0</v>
       </c>
-      <c r="M22" s="28">
+      <c r="M22" s="27">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" s="28">
+      <c r="A23" s="27">
         <v>10</v>
       </c>
-      <c r="B23" s="28">
+      <c r="B23" s="27">
         <v>30</v>
       </c>
-      <c r="H23" s="8" t="s">
+      <c r="H23" s="7" t="s">
         <v>39</v>
       </c>
       <c r="I23">
@@ -7128,21 +5905,21 @@
       <c r="J23">
         <v>74</v>
       </c>
-      <c r="L23" s="28">
+      <c r="L23" s="27">
         <v>0</v>
       </c>
-      <c r="M23" s="28">
+      <c r="M23" s="27">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" s="28">
+      <c r="A24" s="27">
         <v>11</v>
       </c>
-      <c r="B24" s="28">
+      <c r="B24" s="27">
         <v>36</v>
       </c>
-      <c r="H24" s="8" t="s">
+      <c r="H24" s="7" t="s">
         <v>40</v>
       </c>
       <c r="I24">
@@ -7151,15 +5928,15 @@
       <c r="J24">
         <v>68</v>
       </c>
-      <c r="L24" s="28">
+      <c r="L24" s="27">
         <v>0</v>
       </c>
-      <c r="M24" s="28">
+      <c r="M24" s="27">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="H25" s="8" t="s">
+      <c r="H25" s="7" t="s">
         <v>41</v>
       </c>
       <c r="I25">
@@ -7168,21 +5945,21 @@
       <c r="J25">
         <v>80</v>
       </c>
-      <c r="L25" s="28">
+      <c r="L25" s="27">
         <v>0</v>
       </c>
-      <c r="M25" s="28">
+      <c r="M25" s="27">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" s="28" t="s">
+      <c r="A26" s="27" t="s">
         <v>53</v>
       </c>
       <c r="B26" t="s">
         <v>30</v>
       </c>
-      <c r="H26" s="8" t="s">
+      <c r="H26" s="7" t="s">
         <v>42</v>
       </c>
       <c r="I26">
@@ -7191,30 +5968,30 @@
       <c r="J26">
         <v>20</v>
       </c>
-      <c r="L26" s="28">
+      <c r="L26" s="27">
         <v>0</v>
       </c>
-      <c r="M26" s="28">
+      <c r="M26" s="27">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="28">
+      <c r="A27" s="27">
         <v>1</v>
       </c>
-      <c r="B27" s="28">
+      <c r="B27" s="27">
         <v>30</v>
       </c>
-      <c r="D27" s="24" t="s">
+      <c r="D27" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="E27" s="50">
+      <c r="E27" s="37">
         <v>20</v>
       </c>
       <c r="F27" t="s">
         <v>52</v>
       </c>
-      <c r="H27" s="8" t="s">
+      <c r="H27" s="7" t="s">
         <v>43</v>
       </c>
       <c r="I27">
@@ -7223,31 +6000,31 @@
       <c r="J27">
         <v>75</v>
       </c>
-      <c r="L27" s="28">
+      <c r="L27" s="27">
         <v>0</v>
       </c>
-      <c r="M27" s="28">
+      <c r="M27" s="27">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A28" s="28">
+      <c r="A28" s="27">
         <v>2</v>
       </c>
-      <c r="B28" s="28">
+      <c r="B28" s="27">
         <v>25</v>
       </c>
-      <c r="D28" s="24" t="s">
+      <c r="D28" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="E28" s="50">
+      <c r="E28" s="37">
         <f>_xlfn.QUARTILE.EXC(B27:B37,1)</f>
         <v>20</v>
       </c>
       <c r="F28" t="s">
         <v>52</v>
       </c>
-      <c r="H28" s="8" t="s">
+      <c r="H28" s="7" t="s">
         <v>44</v>
       </c>
       <c r="I28">
@@ -7256,31 +6033,31 @@
       <c r="J28">
         <v>69</v>
       </c>
-      <c r="L28" s="28">
+      <c r="L28" s="27">
         <v>0</v>
       </c>
-      <c r="M28" s="28">
+      <c r="M28" s="27">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A29" s="28">
+      <c r="A29" s="27">
         <v>3</v>
       </c>
-      <c r="B29" s="28">
+      <c r="B29" s="27">
         <v>50</v>
       </c>
-      <c r="D29" s="27" t="s">
+      <c r="D29" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="E29" s="49">
+      <c r="E29" s="36">
         <f>AVERAGE(B27:B37)</f>
         <v>28.90909090909091</v>
       </c>
       <c r="F29" t="s">
         <v>56</v>
       </c>
-      <c r="H29" s="8" t="s">
+      <c r="H29" s="7" t="s">
         <v>45</v>
       </c>
       <c r="I29">
@@ -7289,31 +6066,31 @@
       <c r="J29">
         <v>20</v>
       </c>
-      <c r="L29" s="28">
+      <c r="L29" s="27">
         <v>1</v>
       </c>
-      <c r="M29" s="28">
+      <c r="M29" s="27">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A30" s="28">
+      <c r="A30" s="27">
         <v>4</v>
       </c>
-      <c r="B30" s="28">
+      <c r="B30" s="27">
         <v>45</v>
       </c>
-      <c r="D30" s="27" t="s">
+      <c r="D30" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="E30" s="49">
+      <c r="E30" s="36">
         <f>MEDIAN(B27:B37)</f>
         <v>25</v>
       </c>
       <c r="F30" t="s">
         <v>56</v>
       </c>
-      <c r="H30" s="8" t="s">
+      <c r="H30" s="7" t="s">
         <v>46</v>
       </c>
       <c r="I30">
@@ -7322,28 +6099,28 @@
       <c r="J30">
         <v>25</v>
       </c>
-      <c r="L30" s="28">
+      <c r="L30" s="27">
         <v>1</v>
       </c>
-      <c r="M30" s="28">
+      <c r="M30" s="27">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A31" s="28">
+      <c r="A31" s="27">
         <v>5</v>
       </c>
-      <c r="B31" s="28">
+      <c r="B31" s="27">
         <v>20</v>
       </c>
-      <c r="D31" s="26" t="s">
+      <c r="D31" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="E31" s="47">
+      <c r="E31" s="34">
         <f>_xlfn.QUARTILE.EXC(B27:B37,3)</f>
         <v>36</v>
       </c>
-      <c r="H31" s="8" t="s">
+      <c r="H31" s="7" t="s">
         <v>47</v>
       </c>
       <c r="I31">
@@ -7352,27 +6129,27 @@
       <c r="J31">
         <v>34</v>
       </c>
-      <c r="L31" s="28">
+      <c r="L31" s="27">
         <v>1</v>
       </c>
-      <c r="M31" s="28">
+      <c r="M31" s="27">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A32" s="28">
+      <c r="A32" s="27">
         <v>6</v>
       </c>
-      <c r="B32" s="28">
+      <c r="B32" s="27">
         <v>36</v>
       </c>
-      <c r="D32" s="26" t="s">
+      <c r="D32" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E32" s="47">
+      <c r="E32" s="34">
         <v>80</v>
       </c>
-      <c r="H32" s="8" t="s">
+      <c r="H32" s="7" t="s">
         <v>48</v>
       </c>
       <c r="I32">
@@ -7381,56 +6158,56 @@
       <c r="J32">
         <v>55</v>
       </c>
-      <c r="L32" s="28">
+      <c r="L32" s="27">
         <v>0</v>
       </c>
-      <c r="M32" s="28">
+      <c r="M32" s="27">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A33" s="28">
+      <c r="A33" s="27">
         <v>7</v>
       </c>
-      <c r="B33" s="28">
+      <c r="B33" s="27">
         <v>20</v>
       </c>
-      <c r="L33" s="51">
+      <c r="L33" s="38">
         <v>3</v>
       </c>
-      <c r="M33" s="51">
+      <c r="M33" s="38">
         <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A34" s="28">
+      <c r="A34" s="27">
         <v>8</v>
       </c>
-      <c r="B34" s="28">
+      <c r="B34" s="27">
         <v>21</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A35" s="28">
+      <c r="A35" s="27">
         <v>9</v>
       </c>
-      <c r="B35" s="28">
+      <c r="B35" s="27">
         <v>26</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A36" s="28">
+      <c r="A36" s="27">
         <v>10</v>
       </c>
-      <c r="B36" s="28">
+      <c r="B36" s="27">
         <v>25</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A37" s="28">
+      <c r="A37" s="27">
         <v>11</v>
       </c>
-      <c r="B37" s="28">
+      <c r="B37" s="27">
         <v>20</v>
       </c>
     </row>
@@ -7453,520 +6230,4 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE9E62A0-1729-4B99-A19F-FCA0D6DCDFD2}">
-  <dimension ref="A1:F31"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="3" max="4" width="8.88671875" style="29"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="C2" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3">
-        <v>47</v>
-      </c>
-      <c r="C3" s="29">
-        <v>36</v>
-      </c>
-      <c r="D3" s="29">
-        <v>32</v>
-      </c>
-      <c r="E3">
-        <v>28</v>
-      </c>
-      <c r="F3" s="29">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4">
-        <v>47</v>
-      </c>
-      <c r="C4" s="29">
-        <v>36</v>
-      </c>
-      <c r="D4" s="29">
-        <v>32</v>
-      </c>
-      <c r="E4" s="29">
-        <v>28</v>
-      </c>
-      <c r="F4" s="29">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5">
-        <v>47</v>
-      </c>
-      <c r="C5" s="29">
-        <v>36</v>
-      </c>
-      <c r="D5" s="29">
-        <v>32</v>
-      </c>
-      <c r="E5" s="29">
-        <v>28</v>
-      </c>
-      <c r="F5" s="29">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6">
-        <v>47</v>
-      </c>
-      <c r="C6" s="29">
-        <v>36</v>
-      </c>
-      <c r="D6" s="29">
-        <v>32</v>
-      </c>
-      <c r="E6" s="29">
-        <v>28</v>
-      </c>
-      <c r="F6" s="29">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7" s="29">
-        <v>47</v>
-      </c>
-      <c r="C7" s="29">
-        <v>36</v>
-      </c>
-      <c r="D7" s="29">
-        <v>32</v>
-      </c>
-      <c r="E7" s="29">
-        <v>28</v>
-      </c>
-      <c r="F7" s="29">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8" s="29">
-        <v>47</v>
-      </c>
-      <c r="C8" s="29">
-        <v>36</v>
-      </c>
-      <c r="D8" s="29">
-        <v>32</v>
-      </c>
-      <c r="E8" s="29">
-        <v>28</v>
-      </c>
-      <c r="F8" s="29">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="B9" s="29">
-        <v>47</v>
-      </c>
-      <c r="C9" s="29">
-        <v>36</v>
-      </c>
-      <c r="D9" s="29">
-        <v>32</v>
-      </c>
-      <c r="E9" s="29">
-        <v>28</v>
-      </c>
-      <c r="F9" s="29">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10" s="29">
-        <v>47</v>
-      </c>
-      <c r="C10" s="29">
-        <v>36</v>
-      </c>
-      <c r="D10" s="29">
-        <v>32</v>
-      </c>
-      <c r="E10" s="29">
-        <v>28</v>
-      </c>
-      <c r="F10" s="29">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="B11" s="29">
-        <v>47</v>
-      </c>
-      <c r="C11" s="29">
-        <v>36</v>
-      </c>
-      <c r="D11" s="29">
-        <v>32</v>
-      </c>
-      <c r="E11" s="29">
-        <v>28</v>
-      </c>
-      <c r="F11" s="29">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="B12" s="29">
-        <v>47</v>
-      </c>
-      <c r="C12" s="29">
-        <v>36</v>
-      </c>
-      <c r="D12" s="29">
-        <v>32</v>
-      </c>
-      <c r="E12" s="29">
-        <v>28</v>
-      </c>
-      <c r="F12" s="29">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="28" t="s">
-        <v>47</v>
-      </c>
-      <c r="B13" s="29">
-        <v>47</v>
-      </c>
-      <c r="C13" s="29">
-        <v>36</v>
-      </c>
-      <c r="D13" s="29">
-        <v>32</v>
-      </c>
-      <c r="E13" s="29">
-        <v>28</v>
-      </c>
-      <c r="F13" s="29">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14" s="29">
-        <v>47</v>
-      </c>
-      <c r="C14" s="29">
-        <v>36</v>
-      </c>
-      <c r="D14" s="29">
-        <v>32</v>
-      </c>
-      <c r="E14" s="29">
-        <v>28</v>
-      </c>
-      <c r="F14" s="29">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="29"/>
-      <c r="B18" s="29"/>
-      <c r="D18" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18" s="29"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="E19" s="29" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="29">
-        <v>20</v>
-      </c>
-      <c r="C20" s="29">
-        <v>30</v>
-      </c>
-      <c r="D20" s="29">
-        <v>36</v>
-      </c>
-      <c r="E20" s="29">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" s="29">
-        <v>20</v>
-      </c>
-      <c r="C21" s="29">
-        <v>30</v>
-      </c>
-      <c r="D21" s="29">
-        <v>36</v>
-      </c>
-      <c r="E21" s="29">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="B22" s="29">
-        <v>20</v>
-      </c>
-      <c r="C22" s="29">
-        <v>30</v>
-      </c>
-      <c r="D22" s="29">
-        <v>36</v>
-      </c>
-      <c r="E22" s="29">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="B23" s="29">
-        <v>20</v>
-      </c>
-      <c r="C23" s="29">
-        <v>30</v>
-      </c>
-      <c r="D23" s="29">
-        <v>36</v>
-      </c>
-      <c r="E23" s="29">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="B24" s="29">
-        <v>20</v>
-      </c>
-      <c r="C24" s="29">
-        <v>30</v>
-      </c>
-      <c r="D24" s="29">
-        <v>36</v>
-      </c>
-      <c r="E24" s="29">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="B25" s="29">
-        <v>20</v>
-      </c>
-      <c r="C25" s="29">
-        <v>30</v>
-      </c>
-      <c r="D25" s="29">
-        <v>36</v>
-      </c>
-      <c r="E25" s="29">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="B26" s="29">
-        <v>20</v>
-      </c>
-      <c r="C26" s="29">
-        <v>30</v>
-      </c>
-      <c r="D26" s="29">
-        <v>36</v>
-      </c>
-      <c r="E26" s="29">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="B27" s="29">
-        <v>20</v>
-      </c>
-      <c r="C27" s="29">
-        <v>30</v>
-      </c>
-      <c r="D27" s="29">
-        <v>36</v>
-      </c>
-      <c r="E27" s="29">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="B28" s="29">
-        <v>20</v>
-      </c>
-      <c r="C28" s="29">
-        <v>30</v>
-      </c>
-      <c r="D28" s="29">
-        <v>36</v>
-      </c>
-      <c r="E28" s="29">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="B29" s="29">
-        <v>20</v>
-      </c>
-      <c r="C29" s="29">
-        <v>30</v>
-      </c>
-      <c r="D29" s="29">
-        <v>36</v>
-      </c>
-      <c r="E29" s="29">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="28" t="s">
-        <v>47</v>
-      </c>
-      <c r="B30" s="29">
-        <v>20</v>
-      </c>
-      <c r="C30" s="29">
-        <v>30</v>
-      </c>
-      <c r="D30" s="29">
-        <v>36</v>
-      </c>
-      <c r="E30" s="29">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="B31" s="29">
-        <v>20</v>
-      </c>
-      <c r="C31" s="29">
-        <v>30</v>
-      </c>
-      <c r="D31" s="29">
-        <v>36</v>
-      </c>
-      <c r="E31" s="29">
-        <v>33</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/ArqComp/Dados.xlsx
+++ b/ArqComp/Dados.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bianc\Downloads\Repositórios\IGNIS\ArqComp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wesley\Desktop\IgnisBandTEC\IGNIS\ArqComp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3572197-F0B8-4659-8E94-35A99BE01FFE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93C328E1-E2A5-48F0-8364-B8C84A45F7DC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3FCBBB7F-1FC4-4430-B72E-3E374A0E91DE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{3FCBBB7F-1FC4-4430-B72E-3E374A0E91DE}"/>
   </bookViews>
   <sheets>
     <sheet name="Dados" sheetId="1" r:id="rId1"/>
@@ -534,6 +534,13 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -572,13 +579,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -613,7 +613,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -675,7 +675,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -984,7 +984,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="368560256"/>
@@ -1043,7 +1043,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="368559840"/>
@@ -1085,7 +1085,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1122,7 +1122,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-BR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1136,7 +1136,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1203,7 +1203,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1421,7 +1421,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1571741503"/>
@@ -1480,7 +1480,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1571742335"/>
@@ -1522,7 +1522,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1559,7 +1559,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-BR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1573,7 +1573,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1635,7 +1635,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1853,7 +1853,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1315212655"/>
@@ -1912,7 +1912,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1315200591"/>
@@ -1954,7 +1954,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1991,12 +1991,535 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-BR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Temperatura</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha1!$I$2:$I$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Temperatura</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sensor 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFFF00"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Planilha1!$H$4:$H$15</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Janeiro</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Fevereiro</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Março</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Abril</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Maio</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Junho</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Julho</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Agosto</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Setembro</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Outubro</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Novembro</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Dezembro</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$I$4:$I$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>33</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FA6B-409E-AEBD-DDDA231D64BC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha1!$J$2:$J$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Temperatura</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sensor 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Planilha1!$H$4:$H$15</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Janeiro</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Fevereiro</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Março</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Abril</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Maio</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Junho</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Julho</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Agosto</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Setembro</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Outubro</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Novembro</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Dezembro</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$J$4:$J$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>37</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FA6B-409E-AEBD-DDDA231D64BC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="209454816"/>
+        <c:axId val="209461472"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="209454816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="209461472"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="209461472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="209454816"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2122,6 +2645,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -3304,6 +3867,509 @@
       <a:solidFill>
         <a:schemeClr val="phClr"/>
       </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3767,11 +4833,47 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>134469</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>180414</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>302558</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C1C0BA4-6287-4FC3-A815-F96E026D6899}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4069,33 +5171,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4202C79-17A0-4D08-A74A-63921CCEDC02}">
   <dimension ref="A1:S28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A1" s="47" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A1" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>14</v>
       </c>
@@ -4139,7 +5241,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>1999</v>
       </c>
@@ -4183,7 +5285,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>2000</v>
       </c>
@@ -4227,7 +5329,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>2001</v>
       </c>
@@ -4271,7 +5373,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>2002</v>
       </c>
@@ -4311,13 +5413,13 @@
       <c r="M6" s="3">
         <v>78</v>
       </c>
-      <c r="O6" s="61"/>
-      <c r="P6" s="61"/>
-      <c r="Q6" s="61"/>
-      <c r="R6" s="61"/>
-      <c r="S6" s="61"/>
+      <c r="O6" s="47"/>
+      <c r="P6" s="47"/>
+      <c r="Q6" s="47"/>
+      <c r="R6" s="47"/>
+      <c r="S6" s="47"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>2003</v>
       </c>
@@ -4357,13 +5459,13 @@
       <c r="M7" s="3">
         <v>78</v>
       </c>
-      <c r="O7" s="62"/>
-      <c r="P7" s="62"/>
-      <c r="Q7" s="62"/>
-      <c r="R7" s="62"/>
-      <c r="S7" s="62"/>
+      <c r="O7" s="48"/>
+      <c r="P7" s="48"/>
+      <c r="Q7" s="48"/>
+      <c r="R7" s="48"/>
+      <c r="S7" s="48"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>2004</v>
       </c>
@@ -4403,13 +5505,13 @@
       <c r="M8" s="3">
         <v>167</v>
       </c>
-      <c r="O8" s="62"/>
-      <c r="P8" s="62"/>
-      <c r="Q8" s="63"/>
-      <c r="R8" s="62"/>
-      <c r="S8" s="62"/>
+      <c r="O8" s="48"/>
+      <c r="P8" s="48"/>
+      <c r="Q8" s="49"/>
+      <c r="R8" s="48"/>
+      <c r="S8" s="48"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>2005</v>
       </c>
@@ -4449,13 +5551,13 @@
       <c r="M9" s="3">
         <v>91</v>
       </c>
-      <c r="O9" s="61"/>
-      <c r="P9" s="62"/>
-      <c r="Q9" s="62"/>
-      <c r="R9" s="62"/>
-      <c r="S9" s="61"/>
+      <c r="O9" s="47"/>
+      <c r="P9" s="48"/>
+      <c r="Q9" s="48"/>
+      <c r="R9" s="48"/>
+      <c r="S9" s="47"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>2006</v>
       </c>
@@ -4496,7 +5598,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>2007</v>
       </c>
@@ -4537,7 +5639,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>2008</v>
       </c>
@@ -4578,7 +5680,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>2009</v>
       </c>
@@ -4619,7 +5721,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>2010</v>
       </c>
@@ -4660,7 +5762,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>2011</v>
       </c>
@@ -4701,7 +5803,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>2012</v>
       </c>
@@ -4742,7 +5844,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>2013</v>
       </c>
@@ -4783,7 +5885,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>2014</v>
       </c>
@@ -4824,7 +5926,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>2015</v>
       </c>
@@ -4865,7 +5967,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>2016</v>
       </c>
@@ -4906,7 +6008,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>2017</v>
       </c>
@@ -4947,7 +6049,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>2018</v>
       </c>
@@ -4988,7 +6090,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>2019</v>
       </c>
@@ -5029,7 +6131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="43" t="s">
         <v>21</v>
       </c>
@@ -5082,7 +6184,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="43" t="s">
         <v>22</v>
       </c>
@@ -5135,7 +6237,7 @@
         <v>45.5</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="43" t="s">
         <v>19</v>
       </c>
@@ -5188,7 +6290,7 @@
         <v>73.25</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="43" t="s">
         <v>23</v>
       </c>
@@ -5241,7 +6343,7 @@
         <v>92.5</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="43" t="s">
         <v>20</v>
       </c>
@@ -5308,45 +6410,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF0D1D90-D4D7-44EF-ACCC-63453C1F2473}">
   <dimension ref="A1:P37"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:E9"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T1" sqref="T1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="8"/>
-    <col min="7" max="7" width="8.88671875" style="8"/>
-    <col min="11" max="11" width="8.88671875" style="8"/>
+    <col min="1" max="1" width="8.85546875" style="8"/>
+    <col min="7" max="7" width="8.85546875" style="8"/>
+    <col min="11" max="11" width="8.85546875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="60" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="H1" s="48" t="s">
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="H1" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="53" t="s">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="50" t="s">
+      <c r="B2" s="57"/>
+      <c r="C2" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="51"/>
+      <c r="D2" s="54"/>
       <c r="E2" s="29" t="s">
         <v>28</v>
       </c>
@@ -5357,16 +6459,16 @@
       <c r="H2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="48" t="s">
+      <c r="I2" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="52"/>
-      <c r="L2" s="48" t="s">
+      <c r="J2" s="55"/>
+      <c r="L2" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="M2" s="48"/>
+      <c r="M2" s="51"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>49</v>
       </c>
@@ -5400,7 +6502,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>21</v>
       </c>
@@ -5431,7 +6533,7 @@
       <c r="O4" s="31"/>
       <c r="P4" s="32"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="12"/>
       <c r="B5" s="24"/>
       <c r="C5" s="24"/>
@@ -5458,14 +6560,14 @@
       <c r="O5" s="31"/>
       <c r="P5" s="32"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="57" t="s">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="56"/>
-      <c r="C6" s="56"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="58"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="61"/>
       <c r="F6" s="22"/>
       <c r="H6" s="7" t="s">
         <v>39</v>
@@ -5486,18 +6588,18 @@
       <c r="O6" s="31"/>
       <c r="P6" s="21"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="55" t="s">
+      <c r="B7" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="56"/>
-      <c r="D7" s="59" t="s">
+      <c r="C7" s="59"/>
+      <c r="D7" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="58"/>
+      <c r="E7" s="61"/>
       <c r="F7" s="22"/>
       <c r="H7" s="7" t="s">
         <v>40</v>
@@ -5518,7 +6620,7 @@
       <c r="O7" s="31"/>
       <c r="P7" s="21"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
         <v>0.2</v>
       </c>
@@ -5554,7 +6656,7 @@
       <c r="O8" s="31"/>
       <c r="P8" s="21"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
         <v>21</v>
       </c>
@@ -5584,7 +6686,7 @@
       <c r="O9" s="31"/>
       <c r="P9" s="21"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H10" s="7" t="s">
         <v>43</v>
       </c>
@@ -5601,14 +6703,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:16" s="28" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="49" t="s">
+    <row r="11" spans="1:16" s="28" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="B11" s="49"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
+      <c r="B11" s="52"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="52"/>
       <c r="F11" s="22"/>
       <c r="H11" s="7" t="s">
         <v>44</v>
@@ -5626,7 +6728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="30"/>
       <c r="B12" s="30"/>
       <c r="C12" s="30"/>
@@ -5648,7 +6750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="27" t="s">
         <v>53</v>
       </c>
@@ -5674,7 +6776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="27">
         <v>1</v>
       </c>
@@ -5704,7 +6806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="27">
         <v>2</v>
       </c>
@@ -5734,7 +6836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="27">
         <v>3</v>
       </c>
@@ -5758,7 +6860,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="27">
         <v>4</v>
       </c>
@@ -5777,7 +6879,7 @@
       </c>
       <c r="H17" s="7"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="27">
         <v>5</v>
       </c>
@@ -5795,7 +6897,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="27">
         <v>6</v>
       </c>
@@ -5814,16 +6916,16 @@
       <c r="H19" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="I19" s="48" t="s">
+      <c r="I19" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="J19" s="48"/>
-      <c r="L19" s="48" t="s">
+      <c r="J19" s="51"/>
+      <c r="L19" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="M19" s="48"/>
+      <c r="M19" s="51"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="27">
         <v>7</v>
       </c>
@@ -5843,7 +6945,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="27">
         <v>8</v>
       </c>
@@ -5866,7 +6968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="27">
         <v>9</v>
       </c>
@@ -5889,7 +6991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="27">
         <v>10</v>
       </c>
@@ -5912,7 +7014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="27">
         <v>11</v>
       </c>
@@ -5935,7 +7037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H25" s="7" t="s">
         <v>41</v>
       </c>
@@ -5952,7 +7054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="27" t="s">
         <v>53</v>
       </c>
@@ -5975,7 +7077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="27">
         <v>1</v>
       </c>
@@ -6007,7 +7109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="27">
         <v>2</v>
       </c>
@@ -6040,7 +7142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="27">
         <v>3</v>
       </c>
@@ -6073,7 +7175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="27">
         <v>4</v>
       </c>
@@ -6106,7 +7208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="27">
         <v>5</v>
       </c>
@@ -6136,7 +7238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="27">
         <v>6</v>
       </c>
@@ -6165,7 +7267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="27">
         <v>7</v>
       </c>
@@ -6179,7 +7281,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="27">
         <v>8</v>
       </c>
@@ -6187,7 +7289,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="27">
         <v>9</v>
       </c>
@@ -6195,7 +7297,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="27">
         <v>10</v>
       </c>
@@ -6203,7 +7305,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="27">
         <v>11</v>
       </c>

--- a/ArqComp/Dados.xlsx
+++ b/ArqComp/Dados.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wesley\Desktop\IgnisBandTEC\IGNIS\ArqComp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\ignis\IGNIS\ArqComp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93C328E1-E2A5-48F0-8364-B8C84A45F7DC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B396ADC0-9A32-4757-B0DB-E428AD6B54CE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{3FCBBB7F-1FC4-4430-B72E-3E374A0E91DE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{3FCBBB7F-1FC4-4430-B72E-3E374A0E91DE}"/>
   </bookViews>
   <sheets>
     <sheet name="Dados" sheetId="1" r:id="rId1"/>
@@ -631,11 +631,10 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -663,11 +662,10 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -675,7 +673,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-BR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -704,15 +702,79 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:glow rad="63500">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="25000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Planilha1!$H$21:$H$32</c:f>
@@ -826,15 +888,79 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="92D050"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:glow rad="63500">
+                <a:schemeClr val="accent2">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="25000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Planilha1!$H$21:$H$32</c:f>
@@ -931,15 +1057,16 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
+        <c:gapWidth val="315"/>
+        <c:overlap val="-40"/>
         <c:axId val="368559840"/>
         <c:axId val="368560256"/>
       </c:barChart>
@@ -950,66 +1077,26 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="368560256"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="368560256"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -1033,9 +1120,8 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1043,7 +1129,76 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="368560256"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="368560256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-BR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="368559840"/>
@@ -1059,7 +1214,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="t"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1075,9 +1230,8 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="75000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -1085,7 +1239,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-BR"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1102,11 +1256,14 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
+        <a:schemeClr val="dk1">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -1122,7 +1279,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-BR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1154,11 +1311,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1168,13 +1325,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="pt-BR"/>
-              <a:t>Alertas</a:t>
+              <a:t>Alertas Umidade</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="pt-BR" baseline="0"/>
-              <a:t> Umidade</a:t>
-            </a:r>
-            <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1191,11 +1343,11 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -1203,7 +1355,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-BR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1228,7 +1380,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="31750" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -1237,8 +1389,72 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="17"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:val>
             <c:numRef>
               <c:f>Planilha1!$L$21:$L$32</c:f>
@@ -1306,7 +1522,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="31750" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -1315,8 +1531,72 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="17"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:val>
             <c:numRef>
               <c:f>Planilha1!$M$21:$M$32</c:f>
@@ -1370,13 +1650,15 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="1571742335"/>
         <c:axId val="1571741503"/>
@@ -1393,11 +1675,11 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -1409,11 +1691,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1421,7 +1703,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-BR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1571741503"/>
@@ -1436,17 +1718,29 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="1"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="95000"/>
+                      <a:lumOff val="5000"/>
+                      <a:alpha val="42000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                      <a:alpha val="36000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -1456,33 +1750,6 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
         <c:crossAx val="1571742335"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
@@ -1499,7 +1766,12 @@
       <c:legendPos val="b"/>
       <c:overlay val="0"/>
       <c:spPr>
-        <a:noFill/>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="39000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:ln>
           <a:noFill/>
         </a:ln>
@@ -1512,9 +1784,9 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -1522,7 +1794,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-BR"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1538,14 +1810,30 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="39000">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="25000"/>
+          <a:lumOff val="75000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:round/>
@@ -1559,7 +1847,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-BR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1591,11 +1879,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1623,11 +1911,11 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -1635,7 +1923,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-BR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1660,7 +1948,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="31750" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -1669,8 +1957,72 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="17"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:val>
             <c:numRef>
               <c:f>Planilha1!$L$4:$L$15</c:f>
@@ -1738,7 +2090,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="31750" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -1747,8 +2099,72 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="17"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:val>
             <c:numRef>
               <c:f>Planilha1!$M$4:$M$15</c:f>
@@ -1802,13 +2218,15 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="1315200591"/>
         <c:axId val="1315212655"/>
@@ -1825,11 +2243,11 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -1841,11 +2259,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1853,7 +2271,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-BR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1315212655"/>
@@ -1868,17 +2286,29 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="1"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="95000"/>
+                      <a:lumOff val="5000"/>
+                      <a:alpha val="42000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                      <a:alpha val="36000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -1888,33 +2318,6 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
         <c:crossAx val="1315200591"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
@@ -1931,7 +2334,12 @@
       <c:legendPos val="b"/>
       <c:overlay val="0"/>
       <c:spPr>
-        <a:noFill/>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="39000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:ln>
           <a:noFill/>
         </a:ln>
@@ -1944,9 +2352,9 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -1954,7 +2362,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-BR"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1970,14 +2378,30 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="39000">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="25000"/>
+          <a:lumOff val="75000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:round/>
@@ -1991,7 +2415,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-BR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2023,13 +2447,19 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
                   </a:schemeClr>
                 </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
@@ -2055,19 +2485,25 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-BR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2096,13 +2532,42 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="FFFF00"/>
-            </a:solidFill>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
@@ -2218,13 +2683,42 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
@@ -2330,8 +2824,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
         <c:axId val="209454816"/>
         <c:axId val="209461472"/>
       </c:barChart>
@@ -2348,11 +2842,11 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -2366,9 +2860,8 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -2376,7 +2869,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-BR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="209461472"/>
@@ -2397,9 +2890,9 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -2425,9 +2918,8 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -2435,7 +2927,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-BR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="209454816"/>
@@ -2467,9 +2959,8 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -2477,7 +2968,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-BR"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2493,17 +2984,28 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
@@ -2514,7 +3016,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-BR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2686,33 +3188,46 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="213">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -2721,38 +3236,14 @@
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="lt1">
         <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2762,23 +3253,18 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
       </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -2786,36 +3272,1734 @@
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:effectRef idx="0">
       <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="228">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="17"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="228">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="17"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="209">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -2827,30 +5011,31 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -2866,21 +5051,18 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2890,20 +5072,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -2914,17 +5096,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -2933,14 +5115,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2952,28 +5133,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2985,111 +5160,118 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln>
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3101,12 +5283,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -3115,14 +5304,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -3131,9 +5319,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -3143,7 +5330,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -3151,9 +5338,9 @@
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -3164,9 +5351,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -3176,1549 +5362,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -4727,16 +5372,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>167640</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>13895</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>215265</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>180583</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>17705</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>414337</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>184393</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4763,15 +5408,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>478715</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>573965</xdr:colOff>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>90095</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>232970</xdr:colOff>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4799,15 +5444,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>473784</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>569034</xdr:colOff>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>5154</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>8964</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>151839</xdr:colOff>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>73958</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4835,16 +5480,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>134469</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>180414</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>182094</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>156602</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>302558</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>373995</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>166688</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6410,8 +7055,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF0D1D90-D4D7-44EF-ACCC-63453C1F2473}">
   <dimension ref="A1:P37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T1" sqref="T1"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
